--- a/content.xlsx
+++ b/content.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\restricted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Andrew\excel-contact-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="225" windowWidth="15930" windowHeight="16380" tabRatio="934"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120" tabRatio="934"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="8" r:id="rId1"/>
@@ -3596,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D207" sqref="D206:D207"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -6267,7 +6267,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -6289,7 +6289,7 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -6311,7 +6311,7 @@
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -6333,7 +6333,7 @@
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -6355,7 +6355,7 @@
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -6377,7 +6377,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -6399,7 +6399,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -6421,7 +6421,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -6443,7 +6443,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -6465,7 +6465,7 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6487,7 +6487,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -6509,7 +6509,7 @@
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6531,7 +6531,7 @@
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -6553,7 +6553,7 @@
       <c r="H144" s="3"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -6575,7 +6575,7 @@
       <c r="H145" s="3"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -6597,7 +6597,7 @@
       <c r="H146" s="3"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -6619,7 +6619,7 @@
       <c r="H147" s="3"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -6641,7 +6641,7 @@
       <c r="H148" s="3"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -6663,7 +6663,7 @@
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -6685,7 +6685,7 @@
       <c r="H150" s="3"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -6707,7 +6707,7 @@
       <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -6729,7 +6729,7 @@
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6751,7 +6751,7 @@
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -6773,7 +6773,7 @@
       <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -6795,7 +6795,7 @@
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -6817,7 +6817,7 @@
       <c r="H156" s="3"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -6839,7 +6839,7 @@
       <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -6861,7 +6861,7 @@
       <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
@@ -6883,7 +6883,7 @@
       <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -6905,7 +6905,7 @@
       <c r="H160" s="3"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -6927,7 +6927,7 @@
       <c r="H161" s="3"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -6949,7 +6949,7 @@
       <c r="H162" s="3"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -6971,7 +6971,7 @@
       <c r="H163" s="3"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6993,7 +6993,7 @@
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -7015,7 +7015,7 @@
       <c r="H165" s="3"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -7037,7 +7037,7 @@
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -7059,7 +7059,7 @@
       <c r="H167" s="3"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -7081,7 +7081,7 @@
       <c r="H168" s="3"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+      <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -7103,7 +7103,7 @@
       <c r="H169" s="3"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+      <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -7125,7 +7125,7 @@
       <c r="H170" s="3"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -7147,7 +7147,7 @@
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -7169,7 +7169,7 @@
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+      <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -7191,7 +7191,7 @@
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -7213,7 +7213,7 @@
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+      <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -7235,7 +7235,7 @@
       <c r="H175" s="3"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+      <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -7257,7 +7257,7 @@
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+      <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -7279,7 +7279,7 @@
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+      <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -7301,7 +7301,7 @@
       <c r="H178" s="3"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+      <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -7323,7 +7323,7 @@
       <c r="H179" s="3"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -7345,7 +7345,7 @@
       <c r="H180" s="3"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+      <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -7367,7 +7367,7 @@
       <c r="H181" s="3"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -7389,7 +7389,7 @@
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -7411,7 +7411,7 @@
       <c r="H183" s="3"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+      <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -7433,7 +7433,7 @@
       <c r="H184" s="3"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+      <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -7455,7 +7455,7 @@
       <c r="H185" s="3"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+      <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -7477,7 +7477,7 @@
       <c r="H186" s="3"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+      <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -7499,7 +7499,7 @@
       <c r="H187" s="3"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+      <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -7521,7 +7521,7 @@
       <c r="H188" s="3"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -7543,7 +7543,7 @@
       <c r="H189" s="3"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+      <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -7565,7 +7565,7 @@
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -7587,7 +7587,7 @@
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+      <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -7609,7 +7609,7 @@
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+      <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7631,7 +7631,7 @@
       <c r="H193" s="3"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+      <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -7653,7 +7653,7 @@
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+      <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -7675,7 +7675,7 @@
       <c r="H195" s="3"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
+      <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -7697,7 +7697,7 @@
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
+      <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -7719,7 +7719,7 @@
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+      <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
@@ -7741,7 +7741,7 @@
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+      <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -7763,7 +7763,7 @@
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+      <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -7785,7 +7785,7 @@
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+      <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -7807,7 +7807,7 @@
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+      <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -7829,7 +7829,7 @@
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+      <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -7851,7 +7851,7 @@
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+      <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -7873,7 +7873,7 @@
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+      <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7895,7 +7895,7 @@
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+      <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7917,7 +7917,7 @@
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+      <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -7939,7 +7939,7 @@
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+      <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7961,7 +7961,7 @@
       <c r="H208" s="3"/>
     </row>
     <row r="209" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+      <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -7981,7 +7981,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
+      <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
+      <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -8021,7 +8021,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
+      <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -8041,7 +8041,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
+      <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -8061,7 +8061,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
+      <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -8081,7 +8081,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+      <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -8101,7 +8101,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
+      <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -8121,7 +8121,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
+      <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
+      <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -8161,7 +8161,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
+      <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -8181,7 +8181,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+      <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
+      <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -8221,7 +8221,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
+      <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -8241,7 +8241,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
+      <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -8261,7 +8261,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
+      <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -8281,7 +8281,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
+      <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
@@ -8301,7 +8301,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
+      <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -8321,7 +8321,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
+      <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -8341,7 +8341,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
+      <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
@@ -8361,7 +8361,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
+      <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -8381,7 +8381,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+      <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -8401,7 +8401,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+      <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -8421,7 +8421,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+      <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -8441,7 +8441,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+      <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -8461,7 +8461,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+      <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8481,7 +8481,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+      <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -8501,7 +8501,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+      <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -8521,7 +8521,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+      <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -8541,7 +8541,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+      <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -8561,7 +8561,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+      <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
@@ -8581,7 +8581,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -8601,7 +8601,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
@@ -8621,7 +8621,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
@@ -8641,7 +8641,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -8661,7 +8661,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+      <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -8681,7 +8681,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+      <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -8701,7 +8701,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -8721,7 +8721,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
@@ -8741,7 +8741,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
@@ -8761,7 +8761,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+      <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -8781,7 +8781,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+      <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -8801,7 +8801,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
+      <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
@@ -8821,7 +8821,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
+      <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -8841,7 +8841,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
+      <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
@@ -8861,7 +8861,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
+      <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -8881,7 +8881,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
+      <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -8901,7 +8901,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
+      <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
@@ -8921,7 +8921,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
+      <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -8941,7 +8941,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
+      <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -8961,7 +8961,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
+      <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
@@ -8981,7 +8981,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
+      <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -9001,7 +9001,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
+      <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -9021,7 +9021,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
+      <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
@@ -9041,7 +9041,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="4">
+      <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
@@ -9061,7 +9061,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
+      <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -9081,7 +9081,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="4">
+      <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
@@ -9101,7 +9101,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="4">
+      <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
@@ -9121,7 +9121,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="4">
+      <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -9141,7 +9141,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="4">
+      <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
@@ -9161,7 +9161,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="4">
+      <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -9181,7 +9181,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
+      <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
@@ -9201,7 +9201,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
+      <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -9221,7 +9221,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
+      <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
@@ -9241,7 +9241,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
+      <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -9261,7 +9261,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
+      <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
@@ -9281,7 +9281,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
+      <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
@@ -9301,7 +9301,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="4">
+      <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -9321,7 +9321,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="4">
+      <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
@@ -9341,7 +9341,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="4">
+      <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
@@ -9361,7 +9361,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="4">
+      <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -9381,7 +9381,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="4">
+      <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
@@ -9401,7 +9401,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="4">
+      <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -9421,7 +9421,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="4">
+      <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -9441,7 +9441,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="4">
+      <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -9461,7 +9461,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="4">
+      <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -9481,7 +9481,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="4">
+      <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
@@ -9501,7 +9501,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="4">
+      <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
@@ -9521,7 +9521,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="4">
+      <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
@@ -9541,7 +9541,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="4">
+      <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
@@ -9561,7 +9561,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="4">
+      <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -9581,7 +9581,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="4">
+      <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -9601,7 +9601,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
+      <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -9622,7 +9622,7 @@
       <c r="G291" s="28"/>
     </row>
     <row r="292" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
+      <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -9643,7 +9643,7 @@
       <c r="G292" s="28"/>
     </row>
     <row r="293" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
+      <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -11443,7 +11443,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A375" s="5">
+      <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="6" t="s">
@@ -11463,7 +11463,7 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A376" s="5">
+      <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="6" t="s">
@@ -11483,7 +11483,7 @@
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A377" s="5">
+      <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -11503,7 +11503,7 @@
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A378" s="5">
+      <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="7" t="s">
@@ -11523,7 +11523,7 @@
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A379" s="5">
+      <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="7" t="s">
@@ -11543,7 +11543,7 @@
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A380" s="5">
+      <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="7" t="s">
@@ -11563,7 +11563,7 @@
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A381" s="5">
+      <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="7" t="s">
@@ -11583,7 +11583,7 @@
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A382" s="5">
+      <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="7" t="s">
@@ -11603,7 +11603,7 @@
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" s="5">
+      <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="7" t="s">
@@ -11623,7 +11623,7 @@
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A384" s="5">
+      <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="7" t="s">
@@ -11643,7 +11643,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="5">
+      <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="7" t="s">
@@ -11663,7 +11663,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+      <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="7" t="s">
@@ -11683,7 +11683,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
+      <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="7" t="s">
@@ -11703,7 +11703,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
+      <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="7" t="s">
@@ -11723,7 +11723,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
+      <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="7" t="s">
@@ -11743,7 +11743,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
+      <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="7" t="s">
@@ -11763,7 +11763,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="7" t="s">
@@ -11783,7 +11783,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="7" t="s">
@@ -11803,7 +11803,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="7" t="s">
@@ -11823,7 +11823,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="7" t="s">
@@ -11843,7 +11843,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="5">
+      <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="7" t="s">
@@ -11863,7 +11863,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="5">
+      <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="7" t="s">
@@ -11883,7 +11883,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="5">
+      <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -11903,7 +11903,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="5">
+      <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="7" t="s">
@@ -11923,7 +11923,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="5">
+      <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="7" t="s">
@@ -11943,7 +11943,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="5">
+      <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="7" t="s">
@@ -11963,7 +11963,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="5">
+      <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="7" t="s">
@@ -11983,7 +11983,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="5">
+      <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="7" t="s">
@@ -12003,7 +12003,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="5">
+      <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="7" t="s">
@@ -12023,7 +12023,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="5">
+      <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="7" t="s">
@@ -12043,7 +12043,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="5">
+      <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="7" t="s">
@@ -12063,7 +12063,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406" s="5">
+      <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="7" t="s">
@@ -12083,7 +12083,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407" s="5">
+      <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="7" t="s">
@@ -12103,7 +12103,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408" s="5">
+      <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="6" t="s">
@@ -12123,7 +12123,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409" s="5">
+      <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="6" t="s">
@@ -12143,7 +12143,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410" s="5">
+      <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="6" t="s">
@@ -12163,7 +12163,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411" s="5">
+      <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="7" t="s">
@@ -12183,7 +12183,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="5">
+      <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="7" t="s">
@@ -12203,7 +12203,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="5">
+      <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="7" t="s">
@@ -12223,7 +12223,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="5">
+      <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="6" t="s">
@@ -12243,7 +12243,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="5">
+      <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="7" t="s">
@@ -12263,7 +12263,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="5">
+      <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="7" t="s">
@@ -12283,7 +12283,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="5">
+      <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -12303,7 +12303,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="5">
+      <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="7" t="s">
@@ -12323,7 +12323,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="5">
+      <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="7" t="s">
@@ -12343,7 +12343,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="5">
+      <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="6" t="s">
@@ -12363,7 +12363,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="5">
+      <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="6" t="s">
@@ -12383,7 +12383,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="5">
+      <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="6" t="s">
@@ -12403,7 +12403,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="5">
+      <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="6" t="s">
@@ -12423,7 +12423,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="5">
+      <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -12443,7 +12443,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="5">
+      <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -12463,7 +12463,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="5">
+      <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="6" t="s">
@@ -12483,7 +12483,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="5">
+      <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -12503,7 +12503,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="5">
+      <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="6" t="s">
@@ -12523,7 +12523,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429" s="5">
+      <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -12543,7 +12543,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="5">
+      <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -12563,7 +12563,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="5">
+      <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -12583,7 +12583,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="5">
+      <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -12603,7 +12603,7 @@
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A433" s="5">
+      <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -12623,7 +12623,7 @@
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A434" s="5">
+      <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -12643,7 +12643,7 @@
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A435" s="5">
+      <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -12663,7 +12663,7 @@
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A436" s="5">
+      <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -12683,7 +12683,7 @@
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A437" s="5">
+      <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -12703,7 +12703,7 @@
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A438" s="5">
+      <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -12723,7 +12723,7 @@
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A439" s="5">
+      <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">

--- a/content.xlsx
+++ b/content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Andrew\excel-contact-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2802,9 +2802,6 @@
     <t>E256</t>
   </si>
   <si>
-    <t xml:space="preserve">Very difficult </t>
-  </si>
-  <si>
     <t>Bon Jovi</t>
   </si>
   <si>
@@ -3109,6 +3106,9 @@
   </si>
   <si>
     <t>Artiste</t>
+  </si>
+  <si>
+    <t>Very difficult</t>
   </si>
 </sst>
 </file>
@@ -3594,10 +3594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:A529"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E580" sqref="E580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3606,32 +3607,32 @@
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>660</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4175,7 +4176,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4957,7 +4958,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4979,7 +4980,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5001,7 +5002,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5023,7 +5024,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5045,7 +5046,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5067,7 +5068,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5089,7 +5090,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5111,7 +5112,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5133,7 +5134,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5155,7 +5156,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5177,7 +5178,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5199,7 +5200,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5221,7 +5222,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5783,7 +5784,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5824,7 +5825,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6044,7 +6045,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6266,7 +6267,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6288,7 +6289,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6310,7 +6311,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6332,7 +6333,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6354,7 +6355,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6376,7 +6377,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6398,7 +6399,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6442,7 +6443,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6464,7 +6465,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6486,7 +6487,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6508,7 +6509,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6530,7 +6531,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6552,7 +6553,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6574,7 +6575,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6596,7 +6597,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6618,7 +6619,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6640,7 +6641,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6662,7 +6663,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6684,7 +6685,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6706,7 +6707,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6728,7 +6729,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6750,7 +6751,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6772,7 +6773,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6794,7 +6795,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6816,7 +6817,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6838,7 +6839,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6860,7 +6861,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6882,7 +6883,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6904,7 +6905,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6926,7 +6927,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6948,7 +6949,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6970,7 +6971,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6992,7 +6993,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7014,7 +7015,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7036,7 +7037,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7058,7 +7059,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7080,7 +7081,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7102,7 +7103,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7124,7 +7125,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7146,7 +7147,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7168,7 +7169,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7190,7 +7191,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7212,7 +7213,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7234,7 +7235,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7256,7 +7257,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7278,7 +7279,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7300,7 +7301,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7322,7 +7323,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7344,7 +7345,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7366,7 +7367,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7388,7 +7389,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7410,7 +7411,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7432,7 +7433,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7454,7 +7455,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7476,7 +7477,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7498,7 +7499,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7520,7 +7521,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7542,7 +7543,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7564,7 +7565,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7586,7 +7587,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7608,7 +7609,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7630,7 +7631,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7652,7 +7653,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7674,7 +7675,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7696,7 +7697,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7718,7 +7719,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7740,7 +7741,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7762,7 +7763,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7784,7 +7785,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7806,7 +7807,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7828,7 +7829,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7850,7 +7851,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7872,7 +7873,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7894,7 +7895,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -7916,7 +7917,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7938,7 +7939,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -7960,7 +7961,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8240,7 +8241,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8440,7 +8441,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8500,7 +8501,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -8940,7 +8941,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -8980,7 +8981,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -9020,7 +9021,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9160,7 +9161,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9180,7 +9181,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9220,7 +9221,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9320,7 +9321,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9360,7 +9361,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9480,7 +9481,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9621,7 +9622,7 @@
       </c>
       <c r="G291" s="28"/>
     </row>
-    <row r="292" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9642,7 +9643,7 @@
       </c>
       <c r="G292" s="28"/>
     </row>
-    <row r="293" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9663,7 +9664,7 @@
       </c>
       <c r="G293" s="28"/>
     </row>
-    <row r="294" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9685,7 +9686,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -9707,7 +9708,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -9729,7 +9730,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -9751,7 +9752,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -9773,7 +9774,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -9795,7 +9796,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -9817,7 +9818,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -9839,7 +9840,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -9861,7 +9862,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -9883,7 +9884,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -9905,7 +9906,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -9927,7 +9928,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -9949,7 +9950,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -9971,7 +9972,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -9993,7 +9994,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -10015,7 +10016,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -10037,7 +10038,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -10059,7 +10060,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -10081,7 +10082,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -10103,7 +10104,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -10125,7 +10126,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -10147,7 +10148,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -10169,7 +10170,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -10191,7 +10192,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -10213,7 +10214,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -10235,7 +10236,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -10257,7 +10258,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -10279,7 +10280,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -10301,7 +10302,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -10323,7 +10324,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -10345,7 +10346,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -10367,7 +10368,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -10389,7 +10390,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -10411,7 +10412,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -10433,7 +10434,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -10455,7 +10456,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -10477,7 +10478,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -10499,7 +10500,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -10521,7 +10522,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -10543,7 +10544,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -10565,7 +10566,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -10587,7 +10588,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -10609,7 +10610,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -10631,7 +10632,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -10653,7 +10654,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -10675,7 +10676,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -10697,7 +10698,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -10719,7 +10720,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -10741,7 +10742,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -10763,7 +10764,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -10785,7 +10786,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -10807,7 +10808,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -10829,7 +10830,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -10851,7 +10852,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -10873,7 +10874,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -10898,7 +10899,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -10923,7 +10924,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -10948,7 +10949,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -10970,7 +10971,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -10992,7 +10993,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -11014,7 +11015,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -11036,7 +11037,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11058,7 +11059,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -11080,7 +11081,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -11102,7 +11103,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -11124,7 +11125,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -11146,7 +11147,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -11168,7 +11169,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -11190,7 +11191,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -11212,7 +11213,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -11234,7 +11235,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -11256,7 +11257,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="367" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="368" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="369" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -11338,7 +11339,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -11360,7 +11361,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -11382,7 +11383,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -11422,7 +11423,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -11442,7 +11443,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -11582,7 +11583,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -11622,7 +11623,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -11662,7 +11663,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -11682,7 +11683,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -11702,7 +11703,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -11762,7 +11763,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -11902,7 +11903,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -11982,7 +11983,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -12002,7 +12003,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -12042,7 +12043,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -12122,7 +12123,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -12182,7 +12183,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -12222,7 +12223,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -12242,7 +12243,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -12262,7 +12263,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -12282,7 +12283,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -12342,7 +12343,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -12382,7 +12383,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -12402,7 +12403,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -12482,7 +12483,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -12542,7 +12543,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -12662,7 +12663,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -12682,7 +12683,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -12722,7 +12723,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -12762,7 +12763,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -12802,7 +12803,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="444" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -12844,7 +12845,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -12866,7 +12867,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -12888,7 +12889,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -12928,7 +12929,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -12988,7 +12989,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -13048,7 +13049,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -13068,7 +13069,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -13128,7 +13129,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -13148,7 +13149,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -13208,7 +13209,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -13228,7 +13229,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -13268,7 +13269,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -13288,7 +13289,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -13368,7 +13369,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -13448,7 +13449,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -13528,7 +13529,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -13588,7 +13589,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -13628,7 +13629,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -13648,7 +13649,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -13748,7 +13749,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -13788,7 +13789,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -13828,7 +13829,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -13848,7 +13849,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -13868,7 +13869,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -13908,7 +13909,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -13968,7 +13969,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -14008,7 +14009,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -14088,7 +14089,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -14108,7 +14109,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -14168,7 +14169,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -14188,7 +14189,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -14228,7 +14229,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -14268,7 +14269,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -14308,7 +14309,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -14328,7 +14329,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -14388,7 +14389,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -14408,7 +14409,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -14428,7 +14429,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -14508,7 +14509,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -14548,7 +14549,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="8" t="s">
         <v>882</v>
       </c>
@@ -14570,7 +14571,7 @@
       <c r="G530" s="8"/>
       <c r="H530" s="8"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="8" t="s">
         <v>891</v>
       </c>
@@ -14592,7 +14593,7 @@
       <c r="G531" s="8"/>
       <c r="H531" s="8"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="8" t="s">
         <v>888</v>
       </c>
@@ -14614,7 +14615,7 @@
       <c r="G532" s="8"/>
       <c r="H532" s="8"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="8" t="s">
         <v>885</v>
       </c>
@@ -14636,7 +14637,7 @@
       <c r="G533" s="8"/>
       <c r="H533" s="8"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="8" t="s">
         <v>895</v>
       </c>
@@ -14658,7 +14659,7 @@
       <c r="G534" s="8"/>
       <c r="H534" s="8"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>898</v>
       </c>
@@ -14680,7 +14681,7 @@
       <c r="G535" s="8"/>
       <c r="H535" s="8"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
         <v>901</v>
       </c>
@@ -14702,7 +14703,7 @@
       <c r="G536" s="8"/>
       <c r="H536" s="8"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
         <v>904</v>
       </c>
@@ -14724,7 +14725,7 @@
       <c r="G537" s="8"/>
       <c r="H537" s="8"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
         <v>907</v>
       </c>
@@ -14746,7 +14747,7 @@
       <c r="G538" s="8"/>
       <c r="H538" s="8"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
         <v>910</v>
       </c>
@@ -14776,7 +14777,7 @@
         <v>124</v>
       </c>
       <c r="C540" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D540" s="8" t="s">
         <v>134</v>
@@ -14790,7 +14791,7 @@
       <c r="G540" s="8"/>
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
         <v>916</v>
       </c>
@@ -14812,7 +14813,7 @@
       <c r="G541" s="8"/>
       <c r="H541" s="8"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
         <v>880</v>
       </c>
@@ -14834,12 +14835,12 @@
       <c r="G542" s="8"/>
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B543" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C543" s="19" t="s">
         <v>59</v>
@@ -14848,7 +14849,7 @@
         <v>2</v>
       </c>
       <c r="E543" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F543" s="19" t="s">
         <v>917</v>
@@ -14856,19 +14857,19 @@
     </row>
     <row r="544" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C544" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D544" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E544" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F544" s="19" t="s">
         <v>917</v>
@@ -14876,19 +14877,19 @@
     </row>
     <row r="545" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="20" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B545" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C545" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D545" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E545" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F545" s="19" t="s">
         <v>917</v>
@@ -14896,50 +14897,50 @@
     </row>
     <row r="546" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D546" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E546" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F546" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="547" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B547" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C547" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D547" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E547" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F547" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="548" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C548" s="19" t="s">
         <v>657</v>
@@ -14948,27 +14949,27 @@
         <v>28</v>
       </c>
       <c r="E548" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F548" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="549" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B549" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D549" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E549" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F549" s="19" t="s">
         <v>917</v>
@@ -14976,30 +14977,30 @@
     </row>
     <row r="550" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="20" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B550" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C550" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D550" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E550" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F550" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="551" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B551" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C551" s="19" t="s">
         <v>148</v>
@@ -15014,15 +15015,15 @@
         <v>917</v>
       </c>
     </row>
-    <row r="552" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B552" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C552" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D552" s="19" t="s">
         <v>2</v>
@@ -15036,53 +15037,53 @@
     </row>
     <row r="553" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B553" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C553" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D553" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E553" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F553" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="554" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="20" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B554" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C554" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D554" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E554" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F554" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="555" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B555" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C555" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D555" s="19" t="s">
         <v>186</v>
@@ -15094,55 +15095,55 @@
         <v>917</v>
       </c>
     </row>
-    <row r="556" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="20" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B556" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C556" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D556" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E556" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="F556" s="19" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="20" t="s">
+        <v>956</v>
+      </c>
+      <c r="B557" s="19" t="s">
         <v>955</v>
       </c>
-      <c r="F556" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="B557" s="19" t="s">
-        <v>956</v>
-      </c>
       <c r="C557" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D557" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E557" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F557" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="558" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B558" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C558" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D558" s="19" t="s">
         <v>2</v>
@@ -15154,12 +15155,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="559" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="20" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B559" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C559" s="19" t="s">
         <v>64</v>
@@ -15174,12 +15175,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="560" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B560" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C560" s="19" t="s">
         <v>150</v>
@@ -15194,9 +15195,9 @@
         <v>917</v>
       </c>
     </row>
-    <row r="561" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>293</v>
@@ -15214,15 +15215,15 @@
         <v>917</v>
       </c>
     </row>
-    <row r="562" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B562" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C562" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D562" s="19" t="s">
         <v>21</v>
@@ -15234,15 +15235,15 @@
         <v>917</v>
       </c>
     </row>
-    <row r="563" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B563" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D563" s="19" t="s">
         <v>2</v>
@@ -15254,12 +15255,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="564" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B564" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C564" s="19" t="s">
         <v>208</v>
@@ -15274,12 +15275,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="565" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B565" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C565" s="19" t="s">
         <v>84</v>
@@ -15294,15 +15295,15 @@
         <v>917</v>
       </c>
     </row>
-    <row r="566" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B566" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D566" s="19" t="s">
         <v>2</v>
@@ -15316,19 +15317,19 @@
     </row>
     <row r="567" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B567" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D567" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E567" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F567" s="19" t="s">
         <v>917</v>
@@ -15336,25 +15337,25 @@
     </row>
     <row r="568" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B568" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C568" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D568" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E568" s="19" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F568" s="19" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="569" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="20" t="s">
         <v>925</v>
       </c>
@@ -15374,7 +15375,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="570" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="20" t="s">
         <v>923</v>
       </c>
@@ -15394,12 +15395,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="27" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B571" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C571" s="25" t="s">
         <v>593</v>
@@ -15415,12 +15416,12 @@
       </c>
       <c r="G571" s="23"/>
     </row>
-    <row r="572" spans="1:8" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" s="22" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="27" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B572" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C572" s="25" t="s">
         <v>593</v>
@@ -15437,9 +15438,9 @@
       <c r="G572" s="23"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" s="22" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B573" s="25" t="s">
         <v>633</v>
@@ -15459,12 +15460,12 @@
       <c r="G573" s="23"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="27" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B574" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C574" s="25" t="s">
         <v>593</v>
@@ -15480,12 +15481,12 @@
       </c>
       <c r="G574" s="23"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="27" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B575" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C575" s="25" t="s">
         <v>593</v>
@@ -15494,43 +15495,43 @@
         <v>186</v>
       </c>
       <c r="E575" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F575" s="27" t="s">
         <v>920</v>
       </c>
       <c r="G575" s="23"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="27" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B576" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C576" s="25" t="s">
         <v>1008</v>
-      </c>
-      <c r="C576" s="25" t="s">
-        <v>1009</v>
       </c>
       <c r="D576" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E576" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F576" s="27" t="s">
         <v>920</v>
       </c>
       <c r="G576" s="23"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="26" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B577" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="C577" s="25" t="s">
         <v>996</v>
-      </c>
-      <c r="C577" s="25" t="s">
-        <v>997</v>
       </c>
       <c r="D577" s="25" t="s">
         <v>2</v>
@@ -15542,15 +15543,15 @@
         <v>875</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="26" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B578" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C578" s="24" t="s">
         <v>1001</v>
-      </c>
-      <c r="C578" s="24" t="s">
-        <v>1002</v>
       </c>
       <c r="D578" s="25" t="s">
         <v>28</v>
@@ -15564,19 +15565,19 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="26" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B579" s="25" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C579" s="25" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D579" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E579" s="26" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F579" s="26" t="s">
         <v>875</v>
@@ -15584,10 +15585,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="27" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B580" s="25" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C580" s="25" t="s">
         <v>608</v>
@@ -15596,22 +15597,22 @@
         <v>21</v>
       </c>
       <c r="E580" s="27" t="s">
-        <v>926</v>
+        <v>1028</v>
       </c>
       <c r="F580" s="27" t="s">
         <v>920</v>
       </c>
       <c r="G580" s="23"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B581" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C581" s="25" t="s">
         <v>1006</v>
-      </c>
-      <c r="C581" s="25" t="s">
-        <v>1007</v>
       </c>
       <c r="D581" s="25" t="s">
         <v>28</v>
@@ -15624,12 +15625,12 @@
       </c>
       <c r="G581" s="23"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="27" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B582" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C582" s="25" t="s">
         <v>593</v>
@@ -15638,19 +15639,19 @@
         <v>2</v>
       </c>
       <c r="E582" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F582" s="27" t="s">
         <v>920</v>
       </c>
       <c r="G582" s="23"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="27" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B583" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C583" s="25" t="s">
         <v>593</v>
@@ -15695,6 +15696,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M583">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Very Difficult"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:H583">
       <sortCondition ref="A1:A583"/>
     </sortState>

--- a/content.xlsx
+++ b/content.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="1027">
   <si>
     <t>A Time For Us</t>
   </si>
@@ -2700,9 +2700,6 @@
     <t>A12</t>
   </si>
   <si>
-    <t xml:space="preserve">Difficult </t>
-  </si>
-  <si>
     <t>Full House OST 풀하우스</t>
   </si>
   <si>
@@ -2758,9 +2755,6 @@
   </si>
   <si>
     <t>Song from a Secret Garden</t>
-  </si>
-  <si>
-    <t>Very Difficult</t>
   </si>
   <si>
     <t>A36</t>
@@ -3598,7 +3592,7 @@
   <dimension ref="A1:K586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E580" sqref="E580"/>
+      <selection activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3614,19 +3608,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>660</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>769</v>
@@ -3649,7 +3643,7 @@
         <v>874</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3669,7 +3663,7 @@
         <v>877</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3689,7 +3683,7 @@
         <v>877</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3709,7 +3703,7 @@
         <v>874</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3729,7 +3723,7 @@
         <v>877</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3749,7 +3743,7 @@
         <v>877</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3769,7 +3763,7 @@
         <v>877</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3789,7 +3783,7 @@
         <v>874</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3803,7 @@
         <v>877</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3829,7 +3823,7 @@
         <v>877</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3849,7 +3843,7 @@
         <v>877</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3869,7 +3863,7 @@
         <v>877</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3889,7 +3883,7 @@
         <v>877</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3909,7 +3903,7 @@
         <v>874</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3923,7 @@
         <v>877</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3949,7 +3943,7 @@
         <v>874</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3969,7 +3963,7 @@
         <v>874</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3989,7 +3983,7 @@
         <v>874</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4009,7 +4003,7 @@
         <v>877</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4029,7 +4023,7 @@
         <v>877</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4049,7 +4043,7 @@
         <v>877</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4069,7 +4063,7 @@
         <v>877</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4089,7 +4083,7 @@
         <v>877</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4109,7 +4103,7 @@
         <v>877</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4129,7 +4123,7 @@
         <v>877</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4149,7 +4143,7 @@
         <v>877</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4171,7 +4165,7 @@
         <v>877</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -4193,7 +4187,7 @@
         <v>877</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4213,7 +4207,7 @@
         <v>877</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4233,7 +4227,7 @@
         <v>877</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4253,7 +4247,7 @@
         <v>877</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4273,7 +4267,7 @@
         <v>877</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4293,7 +4287,7 @@
         <v>877</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4313,7 +4307,7 @@
         <v>877</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4333,7 +4327,7 @@
         <v>877</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4353,7 +4347,7 @@
         <v>877</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4373,7 +4367,7 @@
         <v>877</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4393,7 +4387,7 @@
         <v>874</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4413,7 +4407,7 @@
         <v>874</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4433,7 +4427,7 @@
         <v>877</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4453,7 +4447,7 @@
         <v>877</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4473,7 +4467,7 @@
         <v>877</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4493,7 +4487,7 @@
         <v>877</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4513,7 +4507,7 @@
         <v>877</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4533,7 +4527,7 @@
         <v>877</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4553,7 +4547,7 @@
         <v>877</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4573,7 +4567,7 @@
         <v>877</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4593,7 +4587,7 @@
         <v>877</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4613,7 +4607,7 @@
         <v>874</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4633,7 +4627,7 @@
         <v>877</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4653,7 +4647,7 @@
         <v>877</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4673,7 +4667,7 @@
         <v>877</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4693,7 +4687,7 @@
         <v>877</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4713,7 +4707,7 @@
         <v>877</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4733,7 +4727,7 @@
         <v>877</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4753,7 +4747,7 @@
         <v>877</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4773,7 +4767,7 @@
         <v>877</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4793,7 +4787,7 @@
         <v>877</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4813,7 +4807,7 @@
         <v>877</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4833,7 +4827,7 @@
         <v>877</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4853,7 +4847,7 @@
         <v>877</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4873,7 +4867,7 @@
         <v>877</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4893,7 +4887,7 @@
         <v>874</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4913,7 +4907,7 @@
         <v>874</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4933,7 +4927,7 @@
         <v>877</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4953,7 +4947,7 @@
         <v>877</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -4975,7 +4969,7 @@
         <v>877</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -4997,7 +4991,7 @@
         <v>877</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -5019,7 +5013,7 @@
         <v>877</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -5041,7 +5035,7 @@
         <v>874</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -5063,7 +5057,7 @@
         <v>877</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -5085,7 +5079,7 @@
         <v>877</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -5107,7 +5101,7 @@
         <v>874</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -5129,7 +5123,7 @@
         <v>877</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -5151,7 +5145,7 @@
         <v>877</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -5173,7 +5167,7 @@
         <v>874</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5195,7 +5189,7 @@
         <v>874</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5217,7 +5211,7 @@
         <v>877</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5239,7 +5233,7 @@
         <v>877</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5259,7 +5253,7 @@
         <v>877</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5279,7 +5273,7 @@
         <v>877</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5299,7 +5293,7 @@
         <v>877</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5319,7 +5313,7 @@
         <v>877</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5339,7 +5333,7 @@
         <v>877</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5359,7 +5353,7 @@
         <v>877</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5379,7 +5373,7 @@
         <v>874</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5399,7 +5393,7 @@
         <v>877</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5419,7 +5413,7 @@
         <v>877</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5439,7 +5433,7 @@
         <v>874</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5459,7 +5453,7 @@
         <v>874</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5479,7 +5473,7 @@
         <v>877</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5499,7 +5493,7 @@
         <v>877</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5519,7 +5513,7 @@
         <v>874</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5539,7 +5533,7 @@
         <v>877</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5559,7 +5553,7 @@
         <v>877</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5579,7 +5573,7 @@
         <v>877</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5599,7 +5593,7 @@
         <v>877</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5619,7 +5613,7 @@
         <v>874</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5639,7 +5633,7 @@
         <v>877</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5659,7 +5653,7 @@
         <v>877</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5679,7 +5673,7 @@
         <v>877</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5699,7 +5693,7 @@
         <v>877</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5719,7 +5713,7 @@
         <v>877</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5739,7 +5733,7 @@
         <v>877</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5759,7 +5753,7 @@
         <v>874</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5779,7 +5773,7 @@
         <v>877</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -5801,7 +5795,7 @@
         <v>874</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5821,7 +5815,7 @@
         <v>877</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G109" s="2"/>
     </row>
@@ -5842,7 +5836,7 @@
         <v>877</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5862,7 +5856,7 @@
         <v>877</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -5882,7 +5876,7 @@
         <v>877</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5902,7 +5896,7 @@
         <v>877</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5922,7 +5916,7 @@
         <v>874</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5942,7 +5936,7 @@
         <v>877</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5962,7 +5956,7 @@
         <v>877</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -5982,7 +5976,7 @@
         <v>874</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6002,7 +5996,7 @@
         <v>877</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6022,7 +6016,7 @@
         <v>874</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6042,7 +6036,7 @@
         <v>877</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6062,7 +6056,7 @@
         <v>877</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6082,7 +6076,7 @@
         <v>874</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6102,7 +6096,7 @@
         <v>877</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6122,7 +6116,7 @@
         <v>877</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6142,7 +6136,7 @@
         <v>877</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6162,7 +6156,7 @@
         <v>877</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6182,7 +6176,7 @@
         <v>874</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6202,7 +6196,7 @@
         <v>877</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6222,7 +6216,7 @@
         <v>877</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6242,7 +6236,7 @@
         <v>877</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6262,7 +6256,7 @@
         <v>874</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6284,7 +6278,7 @@
         <v>874</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6306,7 +6300,7 @@
         <v>874</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -6328,7 +6322,7 @@
         <v>877</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -6350,7 +6344,7 @@
         <v>877</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -6372,7 +6366,7 @@
         <v>877</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -6394,7 +6388,7 @@
         <v>877</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -6416,7 +6410,7 @@
         <v>877</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -6438,7 +6432,7 @@
         <v>877</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -6460,7 +6454,7 @@
         <v>877</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -6482,7 +6476,7 @@
         <v>874</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -6504,7 +6498,7 @@
         <v>877</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6526,7 +6520,7 @@
         <v>874</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6548,7 +6542,7 @@
         <v>877</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6570,7 +6564,7 @@
         <v>877</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -6592,7 +6586,7 @@
         <v>877</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -6614,7 +6608,7 @@
         <v>877</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -6636,7 +6630,7 @@
         <v>877</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -6658,7 +6652,7 @@
         <v>874</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -6680,7 +6674,7 @@
         <v>877</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -6702,7 +6696,7 @@
         <v>877</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -6724,7 +6718,7 @@
         <v>877</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -6746,7 +6740,7 @@
         <v>874</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -6768,7 +6762,7 @@
         <v>874</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -6790,7 +6784,7 @@
         <v>874</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -6812,7 +6806,7 @@
         <v>874</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -6834,7 +6828,7 @@
         <v>874</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -6856,7 +6850,7 @@
         <v>874</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -6878,7 +6872,7 @@
         <v>877</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -6900,7 +6894,7 @@
         <v>874</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -6922,7 +6916,7 @@
         <v>877</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -6944,7 +6938,7 @@
         <v>877</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -6966,7 +6960,7 @@
         <v>877</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -6988,7 +6982,7 @@
         <v>874</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -7010,7 +7004,7 @@
         <v>877</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -7032,7 +7026,7 @@
         <v>874</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -7054,7 +7048,7 @@
         <v>877</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -7076,7 +7070,7 @@
         <v>877</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -7098,7 +7092,7 @@
         <v>877</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -7120,7 +7114,7 @@
         <v>877</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -7142,7 +7136,7 @@
         <v>877</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -7164,7 +7158,7 @@
         <v>877</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -7186,7 +7180,7 @@
         <v>877</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -7208,7 +7202,7 @@
         <v>877</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -7230,7 +7224,7 @@
         <v>877</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -7252,7 +7246,7 @@
         <v>877</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -7274,7 +7268,7 @@
         <v>874</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -7296,7 +7290,7 @@
         <v>877</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -7318,7 +7312,7 @@
         <v>877</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -7340,7 +7334,7 @@
         <v>874</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -7362,7 +7356,7 @@
         <v>877</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -7384,7 +7378,7 @@
         <v>874</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -7406,7 +7400,7 @@
         <v>874</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -7428,7 +7422,7 @@
         <v>877</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -7450,7 +7444,7 @@
         <v>874</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -7472,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -7494,7 +7488,7 @@
         <v>877</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -7516,7 +7510,7 @@
         <v>874</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -7538,7 +7532,7 @@
         <v>874</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -7560,7 +7554,7 @@
         <v>877</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -7582,7 +7576,7 @@
         <v>877</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -7604,7 +7598,7 @@
         <v>877</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -7626,7 +7620,7 @@
         <v>874</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -7648,7 +7642,7 @@
         <v>874</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -7670,7 +7664,7 @@
         <v>877</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -7692,7 +7686,7 @@
         <v>877</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -7714,7 +7708,7 @@
         <v>877</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -7736,7 +7730,7 @@
         <v>874</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -7758,7 +7752,7 @@
         <v>877</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -7780,7 +7774,7 @@
         <v>877</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -7802,7 +7796,7 @@
         <v>877</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -7824,7 +7818,7 @@
         <v>877</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -7846,7 +7840,7 @@
         <v>874</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -7868,7 +7862,7 @@
         <v>874</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -7890,7 +7884,7 @@
         <v>877</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -7912,7 +7906,7 @@
         <v>874</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -7934,7 +7928,7 @@
         <v>877</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -7956,7 +7950,7 @@
         <v>877</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -7978,7 +7972,7 @@
         <v>874</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -7998,7 +7992,7 @@
         <v>877</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8018,7 +8012,7 @@
         <v>874</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8038,7 +8032,7 @@
         <v>874</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8058,7 +8052,7 @@
         <v>877</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8078,7 +8072,7 @@
         <v>874</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8098,7 +8092,7 @@
         <v>877</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8118,7 +8112,7 @@
         <v>877</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8138,7 +8132,7 @@
         <v>874</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8158,7 +8152,7 @@
         <v>877</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8178,7 +8172,7 @@
         <v>874</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8198,7 +8192,7 @@
         <v>874</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8218,7 +8212,7 @@
         <v>877</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8238,7 +8232,7 @@
         <v>877</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8258,7 +8252,7 @@
         <v>877</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8278,7 +8272,7 @@
         <v>877</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8298,7 +8292,7 @@
         <v>877</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8318,7 +8312,7 @@
         <v>877</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8338,7 +8332,7 @@
         <v>877</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8358,7 +8352,7 @@
         <v>877</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8378,7 +8372,7 @@
         <v>877</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8398,7 +8392,7 @@
         <v>877</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8418,7 +8412,7 @@
         <v>877</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8438,7 +8432,7 @@
         <v>874</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8458,7 +8452,7 @@
         <v>877</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8478,7 +8472,7 @@
         <v>877</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8498,7 +8492,7 @@
         <v>877</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8518,7 +8512,7 @@
         <v>877</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8538,7 +8532,7 @@
         <v>877</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8558,7 +8552,7 @@
         <v>874</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8578,7 +8572,7 @@
         <v>874</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8598,7 +8592,7 @@
         <v>877</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8618,7 +8612,7 @@
         <v>874</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8638,7 +8632,7 @@
         <v>877</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8658,7 +8652,7 @@
         <v>877</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8678,7 +8672,7 @@
         <v>874</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8698,7 +8692,7 @@
         <v>874</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8718,7 +8712,7 @@
         <v>877</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8738,7 +8732,7 @@
         <v>874</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8758,7 +8752,7 @@
         <v>874</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8778,7 +8772,7 @@
         <v>874</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8798,7 +8792,7 @@
         <v>874</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8818,7 +8812,7 @@
         <v>877</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8838,7 +8832,7 @@
         <v>877</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8858,7 +8852,7 @@
         <v>877</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8878,7 +8872,7 @@
         <v>877</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8898,7 +8892,7 @@
         <v>877</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8918,7 +8912,7 @@
         <v>874</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8938,7 +8932,7 @@
         <v>874</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8958,7 +8952,7 @@
         <v>877</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8978,7 +8972,7 @@
         <v>877</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8998,7 +8992,7 @@
         <v>877</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9018,7 +9012,7 @@
         <v>877</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9038,7 +9032,7 @@
         <v>877</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9058,7 +9052,7 @@
         <v>877</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9078,7 +9072,7 @@
         <v>877</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9098,7 +9092,7 @@
         <v>877</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9118,7 +9112,7 @@
         <v>877</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9138,7 +9132,7 @@
         <v>877</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9158,7 +9152,7 @@
         <v>877</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9178,7 +9172,7 @@
         <v>877</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9198,7 +9192,7 @@
         <v>874</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9218,7 +9212,7 @@
         <v>874</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9238,7 +9232,7 @@
         <v>877</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9258,7 +9252,7 @@
         <v>874</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9278,7 +9272,7 @@
         <v>877</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9298,7 +9292,7 @@
         <v>877</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9318,7 +9312,7 @@
         <v>874</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9338,7 +9332,7 @@
         <v>877</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9358,7 +9352,7 @@
         <v>877</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9378,7 +9372,7 @@
         <v>877</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9398,7 +9392,7 @@
         <v>874</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9418,7 +9412,7 @@
         <v>877</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9438,7 +9432,7 @@
         <v>877</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9458,7 +9452,7 @@
         <v>877</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9478,7 +9472,7 @@
         <v>877</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9498,7 +9492,7 @@
         <v>874</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9518,7 +9512,7 @@
         <v>874</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9538,7 +9532,7 @@
         <v>874</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9558,7 +9552,7 @@
         <v>877</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="289" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9578,7 +9572,7 @@
         <v>877</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="290" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9598,7 +9592,7 @@
         <v>877</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="291" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9618,7 +9612,7 @@
         <v>877</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G291" s="28"/>
     </row>
@@ -9639,7 +9633,7 @@
         <v>877</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G292" s="28"/>
     </row>
@@ -9660,7 +9654,7 @@
         <v>877</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G293" s="28"/>
     </row>
@@ -9681,7 +9675,7 @@
         <v>874</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -9703,7 +9697,7 @@
         <v>877</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -9725,7 +9719,7 @@
         <v>877</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -9747,7 +9741,7 @@
         <v>877</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -9769,7 +9763,7 @@
         <v>874</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -9791,7 +9785,7 @@
         <v>877</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -9813,7 +9807,7 @@
         <v>877</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -9835,7 +9829,7 @@
         <v>877</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -9857,7 +9851,7 @@
         <v>877</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -9879,7 +9873,7 @@
         <v>877</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -9901,7 +9895,7 @@
         <v>874</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -9923,7 +9917,7 @@
         <v>877</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -9945,7 +9939,7 @@
         <v>874</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -9967,7 +9961,7 @@
         <v>877</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -9989,7 +9983,7 @@
         <v>877</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -10011,7 +10005,7 @@
         <v>874</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -10033,7 +10027,7 @@
         <v>874</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -10055,7 +10049,7 @@
         <v>874</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -10077,7 +10071,7 @@
         <v>877</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -10099,7 +10093,7 @@
         <v>877</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -10121,7 +10115,7 @@
         <v>874</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
@@ -10143,7 +10137,7 @@
         <v>874</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -10165,7 +10159,7 @@
         <v>874</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -10187,7 +10181,7 @@
         <v>874</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
@@ -10209,7 +10203,7 @@
         <v>877</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -10231,7 +10225,7 @@
         <v>874</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
@@ -10253,7 +10247,7 @@
         <v>877</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
@@ -10275,7 +10269,7 @@
         <v>874</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -10297,7 +10291,7 @@
         <v>874</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -10319,7 +10313,7 @@
         <v>877</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -10341,7 +10335,7 @@
         <v>874</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -10363,7 +10357,7 @@
         <v>877</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -10385,7 +10379,7 @@
         <v>874</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -10407,7 +10401,7 @@
         <v>874</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -10429,7 +10423,7 @@
         <v>874</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -10451,7 +10445,7 @@
         <v>877</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
@@ -10473,7 +10467,7 @@
         <v>877</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
@@ -10495,7 +10489,7 @@
         <v>874</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
@@ -10517,7 +10511,7 @@
         <v>874</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
@@ -10539,7 +10533,7 @@
         <v>874</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
@@ -10561,7 +10555,7 @@
         <v>874</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
@@ -10583,7 +10577,7 @@
         <v>874</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
@@ -10605,7 +10599,7 @@
         <v>877</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
@@ -10627,7 +10621,7 @@
         <v>877</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
@@ -10649,7 +10643,7 @@
         <v>874</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
@@ -10671,7 +10665,7 @@
         <v>877</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -10693,7 +10687,7 @@
         <v>877</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -10715,7 +10709,7 @@
         <v>874</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -10737,7 +10731,7 @@
         <v>877</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
@@ -10759,7 +10753,7 @@
         <v>874</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
@@ -10781,7 +10775,7 @@
         <v>877</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
@@ -10803,7 +10797,7 @@
         <v>877</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
@@ -10825,7 +10819,7 @@
         <v>877</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -10847,7 +10841,7 @@
         <v>874</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -10869,7 +10863,7 @@
         <v>874</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
@@ -10891,7 +10885,7 @@
         <v>877</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -10916,7 +10910,7 @@
         <v>874</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="2"/>
@@ -10941,7 +10935,7 @@
         <v>874</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="2"/>
@@ -10966,7 +10960,7 @@
         <v>874</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -10988,7 +10982,7 @@
         <v>877</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
@@ -11010,7 +11004,7 @@
         <v>874</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -11032,7 +11026,7 @@
         <v>874</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
@@ -11054,7 +11048,7 @@
         <v>874</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
@@ -11076,7 +11070,7 @@
         <v>874</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -11098,7 +11092,7 @@
         <v>877</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
@@ -11120,7 +11114,7 @@
         <v>877</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
@@ -11142,7 +11136,7 @@
         <v>877</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
@@ -11164,7 +11158,7 @@
         <v>877</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
@@ -11186,7 +11180,7 @@
         <v>874</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -11208,7 +11202,7 @@
         <v>877</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -11230,7 +11224,7 @@
         <v>877</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
@@ -11252,7 +11246,7 @@
         <v>874</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
@@ -11274,7 +11268,7 @@
         <v>877</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="367" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11294,7 +11288,7 @@
         <v>874</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11314,7 +11308,7 @@
         <v>874</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11334,7 +11328,7 @@
         <v>874</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
@@ -11356,7 +11350,7 @@
         <v>874</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
@@ -11378,7 +11372,7 @@
         <v>874</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
@@ -11400,7 +11394,7 @@
         <v>877</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11420,7 +11414,7 @@
         <v>874</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11440,7 +11434,7 @@
         <v>874</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12260,7 +12254,7 @@
         <v>874</v>
       </c>
       <c r="F415" s="8" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12408,7 +12402,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>223</v>
@@ -12480,7 +12474,7 @@
         <v>877</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12500,7 +12494,7 @@
         <v>877</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12520,7 +12514,7 @@
         <v>877</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12760,7 +12754,7 @@
         <v>874</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12780,7 +12774,7 @@
         <v>877</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12800,7 +12794,7 @@
         <v>874</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12820,7 +12814,7 @@
         <v>874</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="444" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12840,7 +12834,7 @@
         <v>874</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
@@ -12862,7 +12856,7 @@
         <v>874</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
@@ -12884,7 +12878,7 @@
         <v>877</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
@@ -12906,7 +12900,7 @@
         <v>874</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12926,7 +12920,7 @@
         <v>877</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12946,7 +12940,7 @@
         <v>877</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12966,7 +12960,7 @@
         <v>877</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12986,7 +12980,7 @@
         <v>874</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13006,7 +13000,7 @@
         <v>874</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13026,7 +13020,7 @@
         <v>874</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13046,7 +13040,7 @@
         <v>877</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13066,7 +13060,7 @@
         <v>877</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13086,7 +13080,7 @@
         <v>874</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13106,7 +13100,7 @@
         <v>874</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13126,7 +13120,7 @@
         <v>874</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13146,7 +13140,7 @@
         <v>877</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13166,7 +13160,7 @@
         <v>877</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13186,7 +13180,7 @@
         <v>877</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13206,7 +13200,7 @@
         <v>877</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13226,7 +13220,7 @@
         <v>877</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13246,7 +13240,7 @@
         <v>877</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13266,7 +13260,7 @@
         <v>877</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13286,7 +13280,7 @@
         <v>874</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13306,7 +13300,7 @@
         <v>874</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13326,7 +13320,7 @@
         <v>874</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13346,7 +13340,7 @@
         <v>874</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13366,7 +13360,7 @@
         <v>877</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13386,7 +13380,7 @@
         <v>874</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13406,7 +13400,7 @@
         <v>877</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13426,7 +13420,7 @@
         <v>877</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13446,7 +13440,7 @@
         <v>877</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13466,7 +13460,7 @@
         <v>877</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13486,7 +13480,7 @@
         <v>877</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13506,7 +13500,7 @@
         <v>877</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13526,7 +13520,7 @@
         <v>877</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13546,7 +13540,7 @@
         <v>874</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13566,7 +13560,7 @@
         <v>874</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13586,7 +13580,7 @@
         <v>877</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13606,7 +13600,7 @@
         <v>877</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13626,7 +13620,7 @@
         <v>874</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13646,7 +13640,7 @@
         <v>874</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13666,7 +13660,7 @@
         <v>877</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13686,7 +13680,7 @@
         <v>877</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13706,7 +13700,7 @@
         <v>877</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13726,7 +13720,7 @@
         <v>877</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13746,7 +13740,7 @@
         <v>874</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13766,7 +13760,7 @@
         <v>874</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13786,7 +13780,7 @@
         <v>877</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13806,7 +13800,7 @@
         <v>877</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13826,7 +13820,7 @@
         <v>874</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13846,7 +13840,7 @@
         <v>874</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13866,7 +13860,7 @@
         <v>877</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13886,7 +13880,7 @@
         <v>877</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13906,7 +13900,7 @@
         <v>877</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13926,7 +13920,7 @@
         <v>874</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13946,7 +13940,7 @@
         <v>874</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13966,7 +13960,7 @@
         <v>877</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -13986,7 +13980,7 @@
         <v>874</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14006,7 +14000,7 @@
         <v>877</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14026,7 +14020,7 @@
         <v>877</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14046,7 +14040,7 @@
         <v>877</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14066,7 +14060,7 @@
         <v>874</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14086,7 +14080,7 @@
         <v>877</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14106,7 +14100,7 @@
         <v>874</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14126,7 +14120,7 @@
         <v>874</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14146,7 +14140,7 @@
         <v>877</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14166,7 +14160,7 @@
         <v>874</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14186,7 +14180,7 @@
         <v>877</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14206,7 +14200,7 @@
         <v>877</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14226,7 +14220,7 @@
         <v>874</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14246,7 +14240,7 @@
         <v>874</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14266,7 +14260,7 @@
         <v>874</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14286,7 +14280,7 @@
         <v>874</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14306,7 +14300,7 @@
         <v>877</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14326,7 +14320,7 @@
         <v>874</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14346,7 +14340,7 @@
         <v>877</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14366,7 +14360,7 @@
         <v>877</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14386,7 +14380,7 @@
         <v>877</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14406,7 +14400,7 @@
         <v>877</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14426,7 +14420,7 @@
         <v>877</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14446,7 +14440,7 @@
         <v>877</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14466,7 +14460,7 @@
         <v>874</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14486,7 +14480,7 @@
         <v>877</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14506,7 +14500,7 @@
         <v>877</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -14526,7 +14520,7 @@
         <v>874</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -14546,7 +14540,7 @@
         <v>877</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -14637,21 +14631,21 @@
       <c r="G533" s="8"/>
       <c r="H533" s="8"/>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B534" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C534" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D534" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E534" s="8" t="s">
-        <v>892</v>
+        <v>952</v>
       </c>
       <c r="F534" s="8" t="s">
         <v>875</v>
@@ -14659,21 +14653,21 @@
       <c r="G534" s="8"/>
       <c r="H534" s="8"/>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B535" s="16" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C535" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D535" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E535" s="8" t="s">
-        <v>892</v>
+        <v>952</v>
       </c>
       <c r="F535" s="8" t="s">
         <v>875</v>
@@ -14681,21 +14675,21 @@
       <c r="G535" s="8"/>
       <c r="H535" s="8"/>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B536" s="16" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C536" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D536" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E536" s="8" t="s">
-        <v>892</v>
+        <v>952</v>
       </c>
       <c r="F536" s="8" t="s">
         <v>875</v>
@@ -14705,13 +14699,13 @@
     </row>
     <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B537" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C537" s="14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D537" s="8" t="s">
         <v>28</v>
@@ -14727,13 +14721,13 @@
     </row>
     <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B538" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C538" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D538" s="8" t="s">
         <v>2</v>
@@ -14749,13 +14743,13 @@
     </row>
     <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B539" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C539" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D539" s="8" t="s">
         <v>2</v>
@@ -14769,21 +14763,21 @@
       <c r="G539" s="8"/>
       <c r="H539" s="8"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B540" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C540" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D540" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E540" s="8" t="s">
-        <v>912</v>
+        <v>1026</v>
       </c>
       <c r="F540" s="8" t="s">
         <v>875</v>
@@ -14791,21 +14785,21 @@
       <c r="G540" s="8"/>
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C541" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D541" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E541" s="8" t="s">
-        <v>892</v>
+        <v>952</v>
       </c>
       <c r="F541" s="8" t="s">
         <v>875</v>
@@ -14835,12 +14829,12 @@
       <c r="G542" s="8"/>
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B543" s="19" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C543" s="19" t="s">
         <v>59</v>
@@ -14849,98 +14843,98 @@
         <v>2</v>
       </c>
       <c r="E543" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F543" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C544" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D544" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E544" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F544" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="20" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B545" s="19" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C545" s="19" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D545" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E545" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F545" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D546" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E546" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F546" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="20" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B547" s="19" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C547" s="19" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D547" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E547" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F547" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="20" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C548" s="19" t="s">
         <v>657</v>
@@ -14949,58 +14943,58 @@
         <v>28</v>
       </c>
       <c r="E548" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F548" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="20" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B549" s="19" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D549" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E549" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F549" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B550" s="19" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C550" s="19" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D550" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E550" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F550" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="551" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="20" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B551" s="19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C551" s="19" t="s">
         <v>148</v>
@@ -15012,18 +15006,18 @@
         <v>877</v>
       </c>
       <c r="F551" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="552" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="20" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B552" s="19" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C552" s="19" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D552" s="19" t="s">
         <v>2</v>
@@ -15032,58 +15026,58 @@
         <v>874</v>
       </c>
       <c r="F552" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="20" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B553" s="19" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C553" s="19" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D553" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E553" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F553" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="20" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B554" s="19" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C554" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D554" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E554" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F554" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="555" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="20" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B555" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C555" s="19" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D555" s="19" t="s">
         <v>186</v>
@@ -15092,58 +15086,58 @@
         <v>877</v>
       </c>
       <c r="F555" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="20" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B556" s="19" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C556" s="19" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D556" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E556" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="F556" s="19" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="F556" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="20" t="s">
-        <v>956</v>
-      </c>
       <c r="B557" s="19" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C557" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D557" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E557" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F557" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="558" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="20" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B558" s="19" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C558" s="19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D558" s="19" t="s">
         <v>2</v>
@@ -15152,15 +15146,15 @@
         <v>877</v>
       </c>
       <c r="F558" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="559" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="20" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B559" s="19" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C559" s="19" t="s">
         <v>64</v>
@@ -15172,15 +15166,15 @@
         <v>874</v>
       </c>
       <c r="F559" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="560" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="20" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B560" s="19" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C560" s="19" t="s">
         <v>150</v>
@@ -15192,12 +15186,12 @@
         <v>877</v>
       </c>
       <c r="F560" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="561" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="20" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>293</v>
@@ -15212,18 +15206,18 @@
         <v>874</v>
       </c>
       <c r="F561" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="562" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B562" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C562" s="19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D562" s="19" t="s">
         <v>21</v>
@@ -15232,18 +15226,18 @@
         <v>877</v>
       </c>
       <c r="F562" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B563" s="21" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D563" s="19" t="s">
         <v>2</v>
@@ -15252,15 +15246,15 @@
         <v>877</v>
       </c>
       <c r="F563" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="564" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B564" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C564" s="19" t="s">
         <v>208</v>
@@ -15272,15 +15266,15 @@
         <v>877</v>
       </c>
       <c r="F564" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="20" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B565" s="19" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C565" s="19" t="s">
         <v>84</v>
@@ -15292,18 +15286,18 @@
         <v>877</v>
       </c>
       <c r="F565" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B566" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D566" s="19" t="s">
         <v>2</v>
@@ -15312,58 +15306,58 @@
         <v>877</v>
       </c>
       <c r="F566" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="20" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B567" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D567" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E567" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F567" s="19" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B568" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C568" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D568" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E568" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F568" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="20" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C569" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D569" s="19" t="s">
         <v>2</v>
@@ -15372,15 +15366,15 @@
         <v>877</v>
       </c>
       <c r="F569" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B570" s="19" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C570" s="19" t="s">
         <v>206</v>
@@ -15392,15 +15386,15 @@
         <v>877</v>
       </c>
       <c r="F570" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="27" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B571" s="25" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C571" s="25" t="s">
         <v>593</v>
@@ -15412,16 +15406,16 @@
         <v>877</v>
       </c>
       <c r="F571" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G571" s="23"/>
     </row>
     <row r="572" spans="1:8" s="22" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="27" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B572" s="25" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C572" s="25" t="s">
         <v>593</v>
@@ -15433,14 +15427,14 @@
         <v>877</v>
       </c>
       <c r="F572" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G572" s="23"/>
       <c r="H572" s="1"/>
     </row>
     <row r="573" spans="1:8" s="22" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="27" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B573" s="25" t="s">
         <v>633</v>
@@ -15455,17 +15449,17 @@
         <v>877</v>
       </c>
       <c r="F573" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G573" s="23"/>
       <c r="H573" s="1"/>
     </row>
     <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="27" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B574" s="25" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C574" s="25" t="s">
         <v>593</v>
@@ -15477,16 +15471,16 @@
         <v>877</v>
       </c>
       <c r="F574" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G574" s="23"/>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="27" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B575" s="25" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C575" s="25" t="s">
         <v>593</v>
@@ -15495,43 +15489,43 @@
         <v>186</v>
       </c>
       <c r="E575" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F575" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G575" s="23"/>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="27" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B576" s="25" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C576" s="25" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D576" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E576" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F576" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G576" s="23"/>
     </row>
     <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="26" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B577" s="25" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C577" s="25" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D577" s="25" t="s">
         <v>2</v>
@@ -15545,13 +15539,13 @@
     </row>
     <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="26" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B578" s="25" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C578" s="24" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D578" s="25" t="s">
         <v>28</v>
@@ -15563,32 +15557,32 @@
         <v>875</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="26" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B579" s="25" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C579" s="25" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D579" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E579" s="26" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F579" s="26" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="27" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B580" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C580" s="25" t="s">
         <v>608</v>
@@ -15597,22 +15591,22 @@
         <v>21</v>
       </c>
       <c r="E580" s="27" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F580" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G580" s="23"/>
     </row>
     <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="27" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B581" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C581" s="25" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D581" s="25" t="s">
         <v>28</v>
@@ -15621,16 +15615,16 @@
         <v>877</v>
       </c>
       <c r="F581" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G581" s="23"/>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="27" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B582" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C582" s="25" t="s">
         <v>593</v>
@@ -15639,19 +15633,19 @@
         <v>2</v>
       </c>
       <c r="E582" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F582" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G582" s="23"/>
     </row>
     <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="27" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B583" s="25" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C583" s="25" t="s">
         <v>593</v>
@@ -15663,7 +15657,7 @@
         <v>877</v>
       </c>
       <c r="F583" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G583" s="23"/>
     </row>
@@ -15698,7 +15692,7 @@
   <autoFilter ref="A1:M583">
     <filterColumn colId="4">
       <filters>
-        <filter val="Very Difficult"/>
+        <filter val="Difficult"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:H583">
